--- a/data/fair_value.xlsx
+++ b/data/fair_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antera\Primatech_Analyzer v_1.0.3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6D148-B948-4D95-9658-FC12E09DA480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD94853-5BA4-4534-9997-1AE32FF9285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>15183</v>
       </c>
       <c r="C12">
-        <v>15.15</v>
+        <v>25.33</v>
       </c>
       <c r="D12">
         <v>2301</v>
